--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46548383-A00D-407E-9B1B-3C6074461051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE10699D-E437-4DB9-88C5-E22A25E8B22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>123</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE10699D-E437-4DB9-88C5-E22A25E8B22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBFBC16-8670-4322-8690-6669630F4020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,7 +377,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>547</v>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBFBC16-8670-4322-8690-6669630F4020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB017C-AAFF-4F00-9C16-BEDA84BFDE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,6 +385,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>548</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB017C-AAFF-4F00-9C16-BEDA84BFDE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267FE10D-1A0F-454E-A63B-E335B47E79BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,6 +390,16 @@
         <v>548</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267FE10D-1A0F-454E-A63B-E335B47E79BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8DDFB0-89A3-4EB0-BC84-17D0DCA535AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,6 +400,11 @@
         <v>865</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>899663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8DDFB0-89A3-4EB0-BC84-17D0DCA535AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809117A6-7D13-4585-B7E9-F797304BBD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,6 +405,16 @@
         <v>899663</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809117A6-7D13-4585-B7E9-F797304BBD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB63A01-AF0E-4CFE-A808-707FEC88BE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,13 +362,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -415,6 +418,16 @@
         <v>66</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>96542121212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB63A01-AF0E-4CFE-A808-707FEC88BE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F368F677-58B8-44BE-9DD5-C86CFF792BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,51 +383,6 @@
         <v>546</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>899663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>96542121212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F368F677-58B8-44BE-9DD5-C86CFF792BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F001D24F-8AAB-46A0-9F62-7AA1B9C19EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>546</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F001D24F-8AAB-46A0-9F62-7AA1B9C19EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF7206A-2E4F-4832-BFEF-4A4D7CA90EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>999</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF7206A-2E4F-4832-BFEF-4A4D7CA90EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B39FB7-BEA1-434E-8402-010523700BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B39FB7-BEA1-434E-8402-010523700BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E1F95-5AE4-420D-AB05-2CA0760305F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E1F95-5AE4-420D-AB05-2CA0760305F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2988F9E-5311-4848-809A-6F4F78DE29E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2988F9E-5311-4848-809A-6F4F78DE29E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50DDFD-FD99-45A0-B473-C32770081D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50DDFD-FD99-45A0-B473-C32770081D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9385D72-21BA-4AD2-8E07-90F2C252D314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9385D72-21BA-4AD2-8E07-90F2C252D314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEB927F-AA93-4367-B656-F323969F40A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEB927F-AA93-4367-B656-F323969F40A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B51674A-3742-4CDE-BE4F-99AD767AB09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B51674A-3742-4CDE-BE4F-99AD767AB09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575BD2DB-9776-44B5-B64E-326E6F62BC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575BD2DB-9776-44B5-B64E-326E6F62BC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A8B4F-7633-4C6C-8CDC-497E0CEE9E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A8B4F-7633-4C6C-8CDC-497E0CEE9E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF278282-6853-4D73-8EBF-3020850CB2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF278282-6853-4D73-8EBF-3020850CB2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6383AE3-047E-4320-84C6-BE944EA953F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/ALL_LivePreTable_V1.xlsx
+++ b/ALL_LivePreTable_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Ramsagar\1cr\onecr_live\update_nse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6383AE3-047E-4320-84C6-BE944EA953F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2F2EE1-B611-431C-805F-94476DCDC732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13515" yWindow="1500" windowWidth="15165" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>123</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
